--- a/Homework/08/VelocityTable.xlsx
+++ b/Homework/08/VelocityTable.xlsx
@@ -429,7 +429,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,7 @@
         <v>1.9179999999999999</v>
       </c>
       <c r="C8">
-        <v>1927</v>
+        <v>1.927</v>
       </c>
       <c r="D8">
         <v>-4.1529999999999996</v>

--- a/Homework/08/VelocityTable.xlsx
+++ b/Homework/08/VelocityTable.xlsx
@@ -429,17 +429,17 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
